--- a/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
+++ b/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004916</t>
+          <t>002463</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实新添丰定期开放混合</t>
+          <t>创金合信价值红利灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.64</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>24.84</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.06</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>24.84</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.06</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002463</t>
+          <t>004916</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信价值红利灵活配置混合A</t>
+          <t>嘉实新添丰定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>36.04</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>36.04</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.41</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005328</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源价值策略股票</t>
+          <t>华夏大盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.51</t>
+          <t>53.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004212</t>
+          <t>011174</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中融量化智选混合A</t>
+          <t>中庚价值品质一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>29.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8885</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004783</t>
+          <t>398021</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融量化智选混合C</t>
+          <t>中海能源策略混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8063</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>398061</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏大盘精选混合</t>
+          <t>中海消费混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>81.36</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3339</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>398021</t>
+          <t>010746</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中海能源策略混合</t>
+          <t>富安达长三角区域主题混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -818,26 +938,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>398061</t>
+          <t>005328</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中海消费混合</t>
+          <t>前海开源价值策略股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.64</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -846,26 +976,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010746</t>
+          <t>004212</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富安达长三角区域主题混合</t>
+          <t>中融量化智选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.25</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -874,26 +1014,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011174</t>
+          <t>004783</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中庚价值品质一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
+++ b/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1022,7 +1023,6 @@
           <t>中融量化智选混合C</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>91.40</t>
@@ -1038,6 +1038,328 @@
       </c>
       <c r="H9" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9104</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2251</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>31.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
+++ b/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1365,4 +1366,896 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>173.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6931</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4194</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3224</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2995</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2316</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166802</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商沪深 300 指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
+++ b/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2258,4 +2259,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
+++ b/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2267,7 +2268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2278,17 +2279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2298,14 +2319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.49</v>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3912</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2314,14 +2357,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.55</v>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2330,14 +2395,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.25</v>
       </c>
     </row>
     <row r="5">
@@ -2346,13 +2433,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005502</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰紫金智能量化股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
+++ b/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2514,7 +2515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2525,17 +2526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2545,14 +2566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9</v>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3768</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2561,14 +2604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.49</v>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2577,14 +2642,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.55</v>
+          <t>166802</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商沪深 300 指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2593,14 +2680,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.25</v>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2609,13 +2718,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005502</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰紫金智能量化股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
+++ b/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2837,7 +2838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2848,17 +2849,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2868,14 +2889,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.72</v>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2884,14 +2927,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9</v>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2900,14 +2965,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.49</v>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2916,14 +3003,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.55</v>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2932,14 +3041,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.25</v>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2948,13 +3079,333 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005502</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰紫金智能量化股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014629</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰紫金智能量化股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
+++ b/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,243 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002463</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>创金合信价值红利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>36.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1350</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创金合信鑫祺混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>24.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0782</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009006</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信鑫祺混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>24.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004916</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实新添丰定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>39.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005404</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信价值红利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>36.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
+      <c r="D6" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -703,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -754,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>516950</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏大盘精选混合</t>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.09</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.36</t>
+          <t>98.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0758</t>
+          <t>0.5172</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -792,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011174</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚价值品质一年持有期混合</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.42</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8885</t>
+          <t>0.2032</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -830,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>398021</t>
+          <t>010746</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中海能源策略混合</t>
+          <t>富安达长三角区域主题混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8063</t>
+          <t>0.0515</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -868,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>398061</t>
+          <t>002025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中海消费混合</t>
+          <t>广发聚盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>26.81</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3339</t>
+          <t>0.0215</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -906,32 +808,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010746</t>
+          <t>515870</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富安达长三角区域主题混合</t>
+          <t>嘉实中证先进制造100策略ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.25</t>
+          <t>98.80</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1100</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -944,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005328</t>
+          <t>005502</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源价值策略股票</t>
+          <t>华泰紫金智能量化股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.51</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -982,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004212</t>
+          <t>012673</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中融量化智选混合A</t>
+          <t>华融融兴6个月定开混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>26.57</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1020,29 +922,110 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004783</t>
+          <t>002026</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中融量化智选混合C</t>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>26.81</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014629</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰紫金智能量化股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="n">
-        <v>6</v>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +1060,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1107,36 +1090,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000118</t>
+          <t>516950</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发聚鑫债券A</t>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>168.23</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>97.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9104</t>
+          <t>0.3768</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1145,36 +1128,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000119</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发聚鑫债券C</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.66</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2709</t>
+          <t>0.2184</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1183,36 +1166,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161123</t>
+          <t>166802</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达并购重组指数（LOF）</t>
+          <t>浙商沪深 300 指数增强（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>88.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2251</t>
+          <t>0.0799</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1221,36 +1204,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>516950</t>
+          <t>002025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华中证基建交易型开放式指数证券投资基金</t>
+          <t>广发聚盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.47</t>
+          <t>22.40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0817</t>
+          <t>0.0206</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1259,36 +1242,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003062</t>
+          <t>515870</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银华通利灵活配置混合A</t>
+          <t>嘉实中证先进制造100策略ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31.01</t>
+          <t>98.79</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0313</t>
+          <t>0.0136</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1297,36 +1280,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000757</t>
+          <t>005502</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华富智慧城市灵活配置混合</t>
+          <t>华泰紫金智能量化股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0192</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1335,36 +1318,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003063</t>
+          <t>002026</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>银华通利灵活配置混合C</t>
+          <t>广发聚盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31.01</t>
+          <t>22.40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0100</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1373,6 +1356,252 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3912</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005502</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰紫金智能量化股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2256,252 +2485,6 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>516950</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华中证基建交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3912</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161123</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达并购重组指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2766</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>710001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富安达优势成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2056</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515870</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实中证先进制造100策略ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.62</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005502</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰紫金智能量化股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2537,7 +2520,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2567,36 +2550,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>516950</t>
+          <t>000118</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华中证基建交易型开放式指数证券投资基金</t>
+          <t>广发聚鑫债券A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.41</t>
+          <t>168.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.55</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3768</t>
+          <t>2.9104</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2605,36 +2588,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161123</t>
+          <t>000119</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达并购重组指数（LOF）</t>
+          <t>广发聚鑫债券C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>15.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2184</t>
+          <t>0.2709</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2643,36 +2626,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166802</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浙商沪深 300 指数增强（LOF）</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.42</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0799</t>
+          <t>0.2251</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2681,36 +2664,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002025</t>
+          <t>516950</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发聚盛灵活配置混合A</t>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22.40</t>
+          <t>96.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0206</t>
+          <t>0.0817</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2719,36 +2702,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515870</t>
+          <t>003062</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实中证先进制造100策略ETF</t>
+          <t>银华通利灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.79</t>
+          <t>31.01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0136</t>
+          <t>0.0313</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2757,36 +2740,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005502</t>
+          <t>000757</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰紫金智能量化股票</t>
+          <t>华富智慧城市灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>0.0192</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2795,36 +2778,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002026</t>
+          <t>003063</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发聚盛灵活配置混合C</t>
+          <t>银华通利灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>22.40</t>
+          <t>31.01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0100</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2838,7 +2821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2859,7 +2842,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2889,36 +2872,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>516950</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华中证基建交易型开放式指数证券投资基金</t>
+          <t>华夏大盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.99</t>
+          <t>53.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.39</t>
+          <t>81.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5172</t>
+          <t>2.0758</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2927,36 +2910,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161123</t>
+          <t>011174</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达并购重组指数（LOF）</t>
+          <t>中庚价值品质一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>29.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>88.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2032</t>
+          <t>0.8885</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2965,36 +2948,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010746</t>
+          <t>398021</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富安达长三角区域主题混合</t>
+          <t>中海能源策略混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>90.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0515</t>
+          <t>0.8063</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3003,36 +2986,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002025</t>
+          <t>398061</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发聚盛灵活配置混合A</t>
+          <t>中海消费混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26.81</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0215</t>
+          <t>0.3339</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3041,32 +3024,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515870</t>
+          <t>010746</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实中证先进制造100策略ETF</t>
+          <t>富安达长三角区域主题混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.80</t>
+          <t>92.25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.1100</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3079,36 +3062,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005502</t>
+          <t>005328</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰紫金智能量化股票</t>
+          <t>前海开源价值策略股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>83.51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -3117,36 +3100,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012673</t>
+          <t>004212</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华融融兴6个月定开混合A</t>
+          <t>中融量化智选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26.57</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -3155,110 +3138,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002026</t>
+          <t>004783</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发聚盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.37</t>
+          <t>中融量化智选混合C</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>26.81</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>012674</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华融融兴6个月定开混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>26.57</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>014629</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰紫金智能量化股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3272,144 +3174,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>002463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信价值红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004916</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实新添丰定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.49</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.55</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.23</v>
+          <t>005404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信价值红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
+++ b/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.82</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.72</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4.49</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>3.55</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>4.25</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3985</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159635</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159619</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1033,7 +1258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1355,7 +1580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1601,7 +1826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2493,7 +2718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2815,7 +3040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3168,7 +3393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
+++ b/数据整理/stocks/A股/深证主板/000425-徐工机械.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.65</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.82</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.72</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>4.49</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>3.55</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>4.25</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -616,7 +633,575 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信价值红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004916</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实新添丰定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信价值红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9249</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4767</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159619</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159635</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发集嘉债券A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发集嘉债券C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -824,7 +1409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1258,7 +1843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1580,7 +2165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1826,7 +2411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2718,7 +3303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3040,7 +3625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3391,250 +3976,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002463</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>创金合信价值红利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>36.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1350</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创金合信鑫祺混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>24.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0782</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009006</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信鑫祺混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>24.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004916</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实新添丰定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>39.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005404</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信价值红利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>36.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>